--- a/unit-linked (random data).xlsx
+++ b/unit-linked (random data).xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="20" windowWidth="25600" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +133,22 @@
       <sz val="12"/>
       <color rgb="FF3366FF"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -153,8 +169,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -166,7 +218,43 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="37">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -232,31 +320,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>98.5083753165824</c:v>
+                  <c:v>98.31337531658241</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146.9405167983142</c:v>
+                  <c:v>146.7455167983142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199.3092227396812</c:v>
+                  <c:v>199.1142227396812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255.9344570999625</c:v>
+                  <c:v>255.7394570999625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>317.1621905090475</c:v>
+                  <c:v>316.9671905090474</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>383.3665140896229</c:v>
+                  <c:v>383.1715140896229</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>454.9519250908274</c:v>
+                  <c:v>454.7569250908273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>532.3557982982098</c:v>
+                  <c:v>532.1607982982098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>616.0510583198883</c:v>
+                  <c:v>615.8560583198882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -273,11 +361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130345384"/>
-        <c:axId val="2130291864"/>
+        <c:axId val="2084216776"/>
+        <c:axId val="2059317384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130345384"/>
+        <c:axId val="2084216776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -286,7 +374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130291864"/>
+        <c:crossAx val="2059317384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -294,7 +382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130291864"/>
+        <c:axId val="2059317384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,7 +393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130345384"/>
+        <c:crossAx val="2084216776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -331,16 +419,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -686,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1199,8 +1287,8 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f>(D22-E22)*0.065</f>
-        <v>16.900000000000002</v>
+        <f>(D22-E22)*0.05</f>
+        <v>13</v>
       </c>
       <c r="G22" s="3">
         <f>H6</f>
@@ -1212,7 +1300,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>316.77188607999994</v>
+        <v>312.87188607999997</v>
       </c>
       <c r="J22">
         <f>(K6-I6)*0.006/(1+0.065)</f>
@@ -1226,7 +1314,7 @@
       </c>
       <c r="N22" s="3">
         <f t="shared" ref="N22:N31" si="8">I22*M22</f>
-        <v>316.77188607999994</v>
+        <v>312.87188607999997</v>
       </c>
     </row>
     <row r="23" spans="2:14">
@@ -1245,8 +1333,8 @@
         <v>39</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" ref="F23:F31" si="9">(D23-E23)*0.065</f>
-        <v>0.84499999999999997</v>
+        <f t="shared" ref="F23:F31" si="9">(D23-E23)*0.05</f>
+        <v>0.65</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ref="G23:G31" si="10">H7</f>
@@ -1258,7 +1346,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>98.508375316582402</v>
+        <v>98.313375316582409</v>
       </c>
       <c r="J23">
         <f t="shared" ref="J23:J31" si="12">(K7-I7)*0.006/(1+0.065)</f>
@@ -1268,12 +1356,12 @@
         <v>2</v>
       </c>
       <c r="M23" s="3">
-        <f>0.995*0.9</f>
-        <v>0.89549999999999996</v>
+        <f>0.994*0.9</f>
+        <v>0.89460000000000006</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" si="8"/>
-        <v>88.214250095999532</v>
+        <v>87.951145558214634</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -1293,7 +1381,7 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="9"/>
-        <v>0.84499999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="10"/>
@@ -1305,7 +1393,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>146.94051679831421</v>
+        <v>146.74551679831421</v>
       </c>
       <c r="J24">
         <f t="shared" si="12"/>
@@ -1315,12 +1403,12 @@
         <v>3</v>
       </c>
       <c r="M24" s="3">
-        <f>M23*(0.995-0.05)</f>
-        <v>0.84624749999999993</v>
+        <f>M23*(0.994-0.05)</f>
+        <v>0.84450239999999999</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" si="8"/>
-        <v>124.34804498928139</v>
+        <v>123.92694112541666</v>
       </c>
     </row>
     <row r="25" spans="2:14">
@@ -1340,7 +1428,7 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" si="9"/>
-        <v>0.84499999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="10"/>
@@ -1352,22 +1440,22 @@
       </c>
       <c r="I25">
         <f t="shared" si="7"/>
-        <v>199.30922273968122</v>
+        <v>199.11422273968122</v>
       </c>
       <c r="J25">
-        <f t="shared" si="12"/>
-        <v>13.997811009361563</v>
+        <f>(K9-I9)*0.006/(1+0.05)</f>
+        <v>14.197779738066727</v>
       </c>
       <c r="L25">
         <v>4</v>
       </c>
       <c r="M25" s="3">
-        <f>M24*0.995</f>
-        <v>0.84201626249999995</v>
+        <f>M24*0.994</f>
+        <v>0.83943538559999997</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="8"/>
-        <v>167.82160681304637</v>
+        <v>167.14352434392859</v>
       </c>
     </row>
     <row r="26" spans="2:14">
@@ -1387,7 +1475,7 @@
       </c>
       <c r="F26" s="3">
         <f t="shared" si="9"/>
-        <v>0.84499999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="10"/>
@@ -1399,7 +1487,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="7"/>
-        <v>255.93445709996251</v>
+        <v>255.73945709996246</v>
       </c>
       <c r="J26">
         <f t="shared" si="12"/>
@@ -1409,12 +1497,12 @@
         <v>5</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" ref="M26:M31" si="15">M25*0.995</f>
-        <v>0.83780618118749994</v>
+        <f t="shared" ref="M26:M31" si="15">M25*0.994</f>
+        <v>0.8343987732864</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="8"/>
-        <v>214.42347013721562</v>
+        <v>213.38868928513861</v>
       </c>
     </row>
     <row r="27" spans="2:14">
@@ -1434,7 +1522,7 @@
       </c>
       <c r="F27" s="3">
         <f t="shared" si="9"/>
-        <v>0.84499999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="10"/>
@@ -1446,7 +1534,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
-        <v>317.16219050904749</v>
+        <v>316.96719050904744</v>
       </c>
       <c r="J27">
         <f t="shared" si="12"/>
@@ -1457,11 +1545,11 @@
       </c>
       <c r="M27" s="3">
         <f t="shared" si="15"/>
-        <v>0.83361715028156247</v>
+        <v>0.82939238064668164</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" si="8"/>
-        <v>264.39184142921016</v>
+        <v>262.89017272318915</v>
       </c>
     </row>
     <row r="28" spans="2:14">
@@ -1481,7 +1569,7 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" si="9"/>
-        <v>0.84499999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="10"/>
@@ -1493,7 +1581,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="7"/>
-        <v>383.36651408962291</v>
+        <v>383.17151408962286</v>
       </c>
       <c r="J28">
         <f t="shared" si="12"/>
@@ -1504,11 +1592,11 @@
       </c>
       <c r="M28" s="3">
         <f t="shared" si="15"/>
-        <v>0.82944906453015466</v>
+        <v>0.82441602636280154</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="8"/>
-        <v>317.98299648382408</v>
+        <v>315.89273706118507</v>
       </c>
     </row>
     <row r="29" spans="2:14">
@@ -1528,7 +1616,7 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" si="9"/>
-        <v>0.84499999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="10"/>
@@ -1540,7 +1628,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="7"/>
-        <v>454.95192509082739</v>
+        <v>454.75692509082734</v>
       </c>
       <c r="J29">
         <f t="shared" si="12"/>
@@ -1551,11 +1639,11 @@
       </c>
       <c r="M29" s="3">
         <f t="shared" si="15"/>
-        <v>0.8253018192075039</v>
+        <v>0.81946953020462476</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="8"/>
-        <v>375.47265142941586</v>
+        <v>372.65944376148002</v>
       </c>
     </row>
     <row r="30" spans="2:14">
@@ -1575,7 +1663,7 @@
       </c>
       <c r="F30" s="3">
         <f t="shared" si="9"/>
-        <v>0.84499999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="10"/>
@@ -1587,7 +1675,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="7"/>
-        <v>532.35579829820983</v>
+        <v>532.16079829820978</v>
       </c>
       <c r="J30">
         <f t="shared" si="12"/>
@@ -1598,11 +1686,11 @@
       </c>
       <c r="M30" s="3">
         <f t="shared" si="15"/>
-        <v>0.82117531011146638</v>
+        <v>0.81455271302339705</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="8"/>
-        <v>437.1574377571697</v>
+        <v>433.47302201850357</v>
       </c>
     </row>
     <row r="31" spans="2:14">
@@ -1622,7 +1710,7 @@
       </c>
       <c r="F31" s="3">
         <f t="shared" si="9"/>
-        <v>0.84499999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="10"/>
@@ -1634,7 +1722,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="7"/>
-        <v>616.05105831988828</v>
+        <v>615.85605831988823</v>
       </c>
       <c r="J31">
         <f t="shared" si="12"/>
@@ -1645,11 +1733,11 @@
       </c>
       <c r="M31" s="3">
         <f t="shared" si="15"/>
-        <v>0.817069433560909</v>
+        <v>0.80966539674525662</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="8"/>
-        <v>503.35648926602966</v>
+        <v>498.63733979754221</v>
       </c>
     </row>
     <row r="57" spans="3:3">
@@ -1724,6 +1812,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/unit-linked (random data).xlsx
+++ b/unit-linked (random data).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>(A)</t>
   </si>
@@ -75,9 +75,6 @@
     <t>allocated premium</t>
   </si>
   <si>
-    <t>fund</t>
-  </si>
-  <si>
     <t>interest</t>
   </si>
   <si>
@@ -115,6 +112,12 @@
   </si>
   <si>
     <t>payment on death in total</t>
+  </si>
+  <si>
+    <t>fund from last year</t>
+  </si>
+  <si>
+    <t>npv=489.59</t>
   </si>
 </sst>
 </file>
@@ -169,8 +172,140 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -218,7 +353,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -237,6 +372,72 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -255,199 +456,77 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.304474409448819"/>
-          <c:y val="0.0277777777777778"/>
-          <c:w val="0.497698600174978"/>
-          <c:h val="0.87962962962963"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$19:$I$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>insurer account profit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$23:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>98.31337531658241</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>146.7455167983142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>199.1142227396812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255.7394570999625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>316.9671905090474</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>383.1715140896229</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>454.7569250908273</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>532.1607982982098</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>615.8560583198882</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2084216776"/>
-        <c:axId val="2059317384"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2084216776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059317384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2059317384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084216776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N74"/>
+  <dimension ref="B2:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -801,22 +880,22 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -1188,12 +1267,12 @@
         <v>88743.416545843531</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:17">
       <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -1201,37 +1280,37 @@
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>26</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>27</v>
-      </c>
-      <c r="J20" t="s">
-        <v>28</v>
       </c>
       <c r="L20" t="s">
         <v>15</v>
       </c>
       <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
         <v>29</v>
       </c>
-      <c r="N20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
+    </row>
+    <row r="21" spans="2:17">
       <c r="B21">
         <v>0</v>
       </c>
@@ -1242,8 +1321,8 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f>150+0.1*C22</f>
-        <v>670</v>
+        <f>0.13*C22</f>
+        <v>676</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1256,7 +1335,7 @@
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I31" si="7">D21-E21+F21+G21-H21</f>
-        <v>-670</v>
+        <v>-676</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1269,10 +1348,10 @@
       </c>
       <c r="N21" s="3">
         <f>I21*M21</f>
-        <v>-670</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
+        <v>-676</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
       <c r="B22">
         <v>1</v>
       </c>
@@ -1284,11 +1363,12 @@
         <v>260</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <f>0.007*C22</f>
+        <v>36.4</v>
       </c>
       <c r="F22" s="3">
         <f>(D22-E22)*0.05</f>
-        <v>13</v>
+        <v>11.18</v>
       </c>
       <c r="G22" s="3">
         <f>H6</f>
@@ -1300,11 +1380,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>312.87188607999997</v>
+        <v>274.65188608</v>
       </c>
       <c r="J22">
-        <f>(K6-I6)*0.006/(1+0.065)</f>
-        <v>3.0093088450704237</v>
+        <f t="shared" ref="J22:J31" si="8">(K6-I6)*0.006/(1+0.05)</f>
+        <v>3.0522989714285722</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1313,11 +1393,11 @@
         <v>1</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" ref="N22:N31" si="8">I22*M22</f>
-        <v>312.87188607999997</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
+        <f t="shared" ref="N22:N31" si="9">I22*M22</f>
+        <v>274.65188608</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23">
         <v>2</v>
       </c>
@@ -1329,28 +1409,28 @@
         <v>52</v>
       </c>
       <c r="E23" s="3">
-        <f>0.0075*C23</f>
-        <v>39</v>
+        <f t="shared" ref="E23:E31" si="10">0.007*C23</f>
+        <v>36.4</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" ref="F23:F31" si="9">(D23-E23)*0.05</f>
-        <v>0.65</v>
+        <f t="shared" ref="F23:F31" si="11">(D23-E23)*0.05</f>
+        <v>0.78000000000000014</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" ref="G23:G31" si="10">H7</f>
+        <f t="shared" ref="G23:G31" si="12">H7</f>
         <v>91.468642303999999</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ref="H23:H31" si="11">0.006*0.1*I7</f>
+        <f t="shared" ref="H23:H31" si="13">0.006*0.1*I7</f>
         <v>6.8052669874175997</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>98.313375316582409</v>
+        <v>101.04337531658241</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J31" si="12">(K7-I7)*0.006/(1+0.065)</f>
-        <v>6.3899220539132422</v>
+        <f t="shared" si="8"/>
+        <v>6.4812066546834304</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -1360,11 +1440,11 @@
         <v>0.89460000000000006</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="8"/>
-        <v>87.951145558214634</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
+        <f t="shared" si="9"/>
+        <v>90.393403558214629</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
       <c r="B24">
         <v>3</v>
       </c>
@@ -1372,32 +1452,32 @@
         <v>5200</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" ref="D24:D31" si="13">0.01*C24</f>
+        <f t="shared" ref="D24:D31" si="14">0.01*C24</f>
         <v>52</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" ref="E24:E31" si="14">0.0075*C24</f>
-        <v>39</v>
+        <f t="shared" si="10"/>
+        <v>36.4</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="9"/>
-        <v>0.65</v>
+        <f t="shared" si="11"/>
+        <v>0.78000000000000014</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>143.79377355046913</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10.698256752154906</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>146.74551679831421</v>
+        <v>149.4755167983142</v>
       </c>
       <c r="J24">
-        <f t="shared" si="12"/>
-        <v>10.045311504370812</v>
+        <f t="shared" si="8"/>
+        <v>10.188815954433251</v>
       </c>
       <c r="L24">
         <v>3</v>
@@ -1407,11 +1487,11 @@
         <v>0.84450239999999999</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="8"/>
-        <v>123.92694112541666</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
+        <f t="shared" si="9"/>
+        <v>126.23243267741665</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
       <c r="B25">
         <v>4</v>
       </c>
@@ -1419,28 +1499,28 @@
         <v>5200</v>
       </c>
       <c r="D25" s="3">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="10"/>
+        <v>36.4</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="11"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="12"/>
+        <v>200.37189146465127</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="9"/>
-        <v>0.65</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="10"/>
-        <v>200.37189146465127</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="11"/>
         <v>14.907668724970055</v>
       </c>
       <c r="I25">
         <f t="shared" si="7"/>
-        <v>199.11422273968122</v>
+        <v>201.84422273968121</v>
       </c>
       <c r="J25">
         <f>(K9-I9)*0.006/(1+0.05)</f>
@@ -1454,11 +1534,14 @@
         <v>0.83943538559999997</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="8"/>
-        <v>167.14352434392859</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
+        <f t="shared" si="9"/>
+        <v>169.43518294661658</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
       <c r="B26">
         <v>5</v>
       </c>
@@ -1466,32 +1549,32 @@
         <v>5200</v>
       </c>
       <c r="D26" s="3">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="10"/>
+        <v>36.4</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="11"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="12"/>
+        <v>261.54867880289811</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="9"/>
-        <v>0.65</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="10"/>
-        <v>261.54867880289811</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="11"/>
         <v>19.459221702935622</v>
       </c>
       <c r="I26">
         <f t="shared" si="7"/>
-        <v>255.73945709996246</v>
+        <v>258.46945709996248</v>
       </c>
       <c r="J26">
-        <f t="shared" si="12"/>
-        <v>18.271569674117959</v>
+        <f t="shared" si="8"/>
+        <v>18.532592098033927</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -1501,11 +1584,11 @@
         <v>0.8343987732864</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="8"/>
-        <v>213.38868928513861</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14">
+        <f t="shared" si="9"/>
+        <v>215.66659793621048</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
       <c r="B27">
         <v>6</v>
       </c>
@@ -1513,32 +1596,32 @@
         <v>5200</v>
       </c>
       <c r="D27" s="3">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="10"/>
+        <v>36.4</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="11"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="12"/>
+        <v>327.69791541599767</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="9"/>
-        <v>0.65</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="10"/>
-        <v>327.69791541599767</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="11"/>
         <v>24.380724906950228</v>
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
-        <v>316.96719050904744</v>
+        <v>319.69719050904746</v>
       </c>
       <c r="J27">
-        <f t="shared" si="12"/>
-        <v>22.892699443145773</v>
+        <f t="shared" si="8"/>
+        <v>23.219738006619281</v>
       </c>
       <c r="L27">
         <v>6</v>
@@ -1548,11 +1631,11 @@
         <v>0.82939238064668164</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="8"/>
-        <v>262.89017272318915</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
+        <f t="shared" si="9"/>
+        <v>265.15441392235459</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
       <c r="B28">
         <v>7</v>
       </c>
@@ -1560,32 +1643,32 @@
         <v>5200</v>
       </c>
       <c r="D28" s="3">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="10"/>
+        <v>36.4</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="11"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="12"/>
+        <v>399.22376198101</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="9"/>
-        <v>0.65</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="10"/>
-        <v>399.22376198101</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="11"/>
         <v>29.702247891387145</v>
       </c>
       <c r="I28">
         <f t="shared" si="7"/>
-        <v>383.17151408962286</v>
+        <v>385.90151408962288</v>
       </c>
       <c r="J28">
-        <f t="shared" si="12"/>
-        <v>27.889434639800182</v>
+        <f t="shared" si="8"/>
+        <v>28.287855134654468</v>
       </c>
       <c r="L28">
         <v>7</v>
@@ -1595,11 +1678,11 @@
         <v>0.82441602636280154</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="8"/>
-        <v>315.89273706118507</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14">
+        <f t="shared" si="9"/>
+        <v>318.14339281315557</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
       <c r="B29">
         <v>8</v>
       </c>
@@ -1607,32 +1690,32 @@
         <v>5200</v>
       </c>
       <c r="D29" s="3">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="10"/>
+        <v>36.4</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="11"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="12"/>
+        <v>476.56322935482643</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="9"/>
-        <v>0.65</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="10"/>
-        <v>476.56322935482643</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="11"/>
         <v>35.456304263999094</v>
       </c>
       <c r="I29">
         <f t="shared" si="7"/>
-        <v>454.75692509082734</v>
+        <v>457.48692509082736</v>
       </c>
       <c r="J29">
-        <f t="shared" si="12"/>
-        <v>33.292304473238616</v>
+        <f t="shared" si="8"/>
+        <v>33.767908822856306</v>
       </c>
       <c r="L29">
         <v>8</v>
@@ -1642,11 +1725,11 @@
         <v>0.81946953020462476</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="8"/>
-        <v>372.65944376148002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14">
+        <f t="shared" si="9"/>
+        <v>374.89659557893867</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
       <c r="B30">
         <v>9</v>
       </c>
@@ -1654,32 +1737,32 @@
         <v>5200</v>
       </c>
       <c r="D30" s="3">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="10"/>
+        <v>36.4</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="11"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="12"/>
+        <v>560.1888486367867</v>
+      </c>
+      <c r="H30" s="3">
         <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="9"/>
-        <v>0.65</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="10"/>
-        <v>560.1888486367867</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="11"/>
         <v>41.678050338576938</v>
       </c>
       <c r="I30">
         <f t="shared" si="7"/>
-        <v>532.16079829820978</v>
+        <v>534.8907982982098</v>
       </c>
       <c r="J30">
-        <f t="shared" si="12"/>
-        <v>39.134319566738959</v>
+        <f t="shared" si="8"/>
+        <v>39.693381274835225</v>
       </c>
       <c r="L30">
         <v>9</v>
@@ -1689,11 +1772,11 @@
         <v>0.81455271302339705</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="8"/>
-        <v>433.47302201850357</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
+        <f t="shared" si="9"/>
+        <v>435.69675092505742</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
       <c r="B31">
         <v>10</v>
       </c>
@@ -1701,32 +1784,32 @@
         <v>5200</v>
       </c>
       <c r="D31" s="3">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="10"/>
+        <v>36.4</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="11"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="12"/>
+        <v>650.61155825398475</v>
+      </c>
+      <c r="H31" s="3">
         <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="9"/>
-        <v>0.65</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="10"/>
-        <v>650.61155825398475</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="11"/>
         <v>48.405499934096476</v>
       </c>
       <c r="I31">
         <f t="shared" si="7"/>
-        <v>615.85605831988823</v>
+        <v>618.58605831988825</v>
       </c>
       <c r="J31">
-        <f t="shared" si="12"/>
-        <v>45.451173647038949</v>
+        <f t="shared" si="8"/>
+        <v>46.100476127710927</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -1736,8 +1819,8 @@
         <v>0.80966539674525662</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="8"/>
-        <v>498.63733979754221</v>
+        <f t="shared" si="9"/>
+        <v>500.84772633065677</v>
       </c>
     </row>
     <row r="57" spans="3:3">
@@ -1813,7 +1896,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
